--- a/data/trans_dic/P32D_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P32D_R-Provincia-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,42; 4,72</t>
+          <t>0,43; 4,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,38; 8,9</t>
+          <t>0,57; 8,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,74; 4,3</t>
+          <t>0,77; 4,43</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,74; 8,07</t>
+          <t>1,81; 8,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,06</t>
+          <t>0,0; 5,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,62; 6,04</t>
+          <t>1,49; 5,92</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,71; 12,97</t>
+          <t>4,55; 12,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,4</t>
+          <t>0,0; 5,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,34; 8,95</t>
+          <t>3,51; 9,2</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,54; 13,76</t>
+          <t>2,81; 14,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,02; 15,5</t>
+          <t>3,86; 14,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,95; 11,93</t>
+          <t>4,34; 12,01</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,97; 22,28</t>
+          <t>1,98; 22,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,14</t>
+          <t>0,0; 24,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,55; 20,92</t>
+          <t>2,4; 18,47</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,31; 22,71</t>
+          <t>10,83; 22,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,56; 13,61</t>
+          <t>3,62; 13,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,44; 17,34</t>
+          <t>9,47; 17,27</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,89; 15,9</t>
+          <t>7,83; 15,22</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,71; 9,88</t>
+          <t>1,42; 9,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,34; 11,36</t>
+          <t>3,93; 11,44</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>11,22; 20,58</t>
+          <t>11,31; 21,11</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10,62; 25,95</t>
+          <t>10,77; 26,71</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>12,33; 20,47</t>
+          <t>12,18; 20,06</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7,98; 11,39</t>
+          <t>8,01; 11,23</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,29; 8,35</t>
+          <t>4,02; 8,31</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,92; 9,68</t>
+          <t>6,92; 9,69</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P32D_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P32D_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,43; 4,64</t>
+          <t>0,42; 4,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,57; 8,83</t>
+          <t>0,38; 8,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,77; 4,43</t>
+          <t>0,74; 4,3</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,81; 8,07</t>
+          <t>1,74; 8,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,37</t>
+          <t>0,0; 6,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,49; 5,92</t>
+          <t>1,62; 6,04</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,55; 12,97</t>
+          <t>4,71; 12,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,31</t>
+          <t>0,0; 5,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,51; 9,2</t>
+          <t>3,34; 8,95</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,81; 14,1</t>
+          <t>2,54; 13,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,86; 14,94</t>
+          <t>4,02; 15,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,34; 12,01</t>
+          <t>3,95; 11,93</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,98; 22,69</t>
+          <t>1,97; 22,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,84</t>
+          <t>0,0; 24,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,4; 18,47</t>
+          <t>2,55; 20,92</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,83; 22,84</t>
+          <t>11,31; 22,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,62; 13,05</t>
+          <t>3,56; 13,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,47; 17,27</t>
+          <t>9,44; 17,34</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,83; 15,22</t>
+          <t>7,89; 15,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,42; 9,8</t>
+          <t>1,71; 9,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,93; 11,44</t>
+          <t>4,34; 11,36</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>11,31; 21,11</t>
+          <t>11,22; 20,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10,77; 26,71</t>
+          <t>10,62; 25,95</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>12,18; 20,06</t>
+          <t>12,33; 20,47</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>8,01; 11,23</t>
+          <t>7,98; 11,39</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,02; 8,31</t>
+          <t>4,29; 8,35</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,92; 9,69</t>
+          <t>6,92; 9,68</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P32D_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P32D_R-Provincia-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>2,05%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,42; 4,72</t>
+          <t>0,39; 4,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,38; 8,9</t>
+          <t>0,37; 9,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,74; 4,3</t>
+          <t>0,71; 4,4</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>3,24%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,74; 8,07</t>
+          <t>1,72; 8,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,06</t>
+          <t>0,0; 6,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,62; 6,04</t>
+          <t>1,64; 6,21</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>5,86%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,71; 12,97</t>
+          <t>4,72; 13,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,4</t>
+          <t>0,0; 5,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,34; 8,95</t>
+          <t>3,41; 9,22</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>7,1%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,54; 13,76</t>
+          <t>2,52; 13,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,02; 15,5</t>
+          <t>4,06; 15,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,95; 11,93</t>
+          <t>3,98; 12,01</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>7,8%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,97; 22,28</t>
+          <t>1,98; 22,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,14</t>
+          <t>0,0; 24,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,55; 20,92</t>
+          <t>2,59; 20,72</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>16,63%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>12,94%</t>
+          <t>13,19%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,31; 22,71</t>
+          <t>11,41; 23,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,56; 13,61</t>
+          <t>3,63; 13,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,44; 17,34</t>
+          <t>9,57; 17,71</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>10,85%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>6,87%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,89; 15,9</t>
+          <t>7,65; 15,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,71; 9,88</t>
+          <t>0,91; 9,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,34; 11,36</t>
+          <t>2,76; 10,77</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>15,44%</t>
+          <t>15,27%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>16,89%</t>
+          <t>15,96%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>15,84%</t>
+          <t>15,45%</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>11,22; 20,58</t>
+          <t>11,13; 20,34</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10,62; 25,95</t>
+          <t>10,16; 23,87</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>12,33; 20,47</t>
+          <t>12,03; 19,78</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>7,66%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7,98; 11,39</t>
+          <t>7,6; 10,93</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,29; 8,35</t>
+          <t>2,9; 7,45</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,92; 9,68</t>
+          <t>5,88; 9,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P32D_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P32D_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +580,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,39; 4,78</t>
+          <t>0,38; 4,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 9,63</t>
+          <t>0,4; 10,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,71; 4,4</t>
+          <t>0,68; 4,65</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,72; 8,07</t>
+          <t>1,48; 7,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,2</t>
+          <t>0,0; 6,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,64; 6,21</t>
+          <t>1,43; 6,39</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,72; 13,03</t>
+          <t>4,71; 13,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,56</t>
+          <t>0,0; 5,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,41; 9,22</t>
+          <t>3,33; 8,85</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,52; 13,36</t>
+          <t>2,52; 13,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,06; 15,42</t>
+          <t>4,03; 14,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,98; 12,01</t>
+          <t>4,27; 11,64</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,98; 22,29</t>
+          <t>1,97; 23,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,35</t>
+          <t>0,0; 28,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,59; 20,72</t>
+          <t>2,32; 20,52</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,41; 23,22</t>
+          <t>11,52; 23,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,63; 13,89</t>
+          <t>3,49; 13,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,57; 17,71</t>
+          <t>9,66; 18,34</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,65; 15,55</t>
+          <t>7,53; 14,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,91; 9,17</t>
+          <t>0,9; 9,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,76; 10,77</t>
+          <t>2,46; 10,51</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>11,13; 20,34</t>
+          <t>11,11; 20,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10,16; 23,87</t>
+          <t>10,21; 23,56</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>12,03; 19,78</t>
+          <t>12,17; 19,68</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7,6; 10,93</t>
+          <t>7,81; 10,89</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,9; 7,45</t>
+          <t>2,74; 7,49</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,88; 9,06</t>
+          <t>5,78; 8,91</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se dio un atracón de alcohol más de una vez al mes en el último año</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2829</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2718</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>5547</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>690; 8610</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>359; 9542</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1826; 12571</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>10188</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1885</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>12073</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3772; 19619</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 7564</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5328; 23825</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>15000</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>987</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>15987</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8607; 24208</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4815</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>9094; 24136</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>11007</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>10311</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>21318</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>4446; 24184</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4987; 18522</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>12838; 34971</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2556</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>3100</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>613; 7275</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2416</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>922; 8152</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>27453</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>7043</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>34495</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>19012; 39159</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>3368; 13141</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>25263; 47963</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>32954</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>15291</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>48246</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>22874; 45527</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>3579; 38447</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>17273; 73847</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>42122</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>15936</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>58058</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>30649; 56363</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>10188; 23520</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>45728; 73927</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>144110</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>54715</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>198824</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>122651; 171136</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>28096; 76684</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>149926; 231208</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>